--- a/assets/findings/2024-03-10-findings.xlsx
+++ b/assets/findings/2024-03-10-findings.xlsx
@@ -625,8 +625,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -658,8 +660,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -724,8 +728,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -757,8 +763,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -823,8 +831,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -856,8 +866,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -922,8 +934,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -955,8 +969,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1186,8 +1202,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -1219,8 +1237,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -1285,8 +1305,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -1318,8 +1340,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -1384,8 +1408,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -1417,8 +1443,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -1483,8 +1511,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -1516,8 +1546,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1582,8 +1614,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1615,8 +1649,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1681,8 +1717,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1714,8 +1752,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1780,8 +1820,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1813,8 +1855,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1879,8 +1923,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1912,8 +1958,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1978,8 +2026,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -2011,8 +2061,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -2077,8 +2129,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -2110,8 +2164,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -2176,8 +2232,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -2209,8 +2267,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -2275,8 +2335,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -2308,8 +2370,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -2555,8 +2619,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2588,8 +2654,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2654,8 +2722,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2687,8 +2757,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2914,8 +2986,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2947,8 +3021,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -3013,8 +3089,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -3046,8 +3124,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -3112,8 +3192,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -3145,8 +3227,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -3211,8 +3295,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -3244,8 +3330,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3310,8 +3398,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -3343,8 +3433,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3409,8 +3501,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -3442,8 +3536,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3508,8 +3604,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -3541,8 +3639,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3607,8 +3707,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -3640,8 +3742,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3706,8 +3810,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -3739,8 +3845,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3805,8 +3913,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -3838,8 +3948,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3904,8 +4016,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -3937,8 +4051,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -4003,8 +4119,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -4036,8 +4154,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -4283,8 +4403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -4316,8 +4438,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -4382,8 +4506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -4415,8 +4541,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -4481,8 +4609,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -4514,8 +4644,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -4580,8 +4712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -4613,8 +4747,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -4679,8 +4815,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -4712,8 +4850,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -4778,8 +4918,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -4811,8 +4953,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
